--- a/Capstone-Docs/Documents/Capstone Timeline.xlsx
+++ b/Capstone-Docs/Documents/Capstone Timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd0f1bc04ebb7ad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd0f1bc04ebb7ad/.Xil/Documents/GitHub/Capstone-2023/Capstone-Docs/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DF9BD83-FACC-40CD-8552-B1C9918776EF}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BCD595-BEFD-49F0-8D8C-803CB98F534A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{995634CD-4C22-4B74-952B-7B9C86B32EB8}"/>
+    <workbookView minimized="1" xWindow="7570" yWindow="1370" windowWidth="2370" windowHeight="560" xr2:uid="{995634CD-4C22-4B74-952B-7B9C86B32EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Formal Proposal</t>
+  </si>
+  <si>
+    <t>Motor Testing</t>
+  </si>
+  <si>
+    <t>Sensor Testing</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC5B07-8330-4D93-AED1-4BF72A9CECD9}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,6 +514,22 @@
         <v>44950</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Capstone-Docs/Documents/Capstone Timeline.xlsx
+++ b/Capstone-Docs/Documents/Capstone Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd0f1bc04ebb7ad/.Xil/Documents/GitHub/Capstone-2023/Capstone-Docs/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BCD595-BEFD-49F0-8D8C-803CB98F534A}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607A14D5-2F7D-4AC6-9C80-60FE86551826}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7570" yWindow="1370" windowWidth="2370" windowHeight="560" xr2:uid="{995634CD-4C22-4B74-952B-7B9C86B32EB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{995634CD-4C22-4B74-952B-7B9C86B32EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -74,7 +74,13 @@
     <t>Motor Testing</t>
   </si>
   <si>
-    <t>Sensor Testing</t>
+    <t>IMU initial testing/setup</t>
+  </si>
+  <si>
+    <t>Encoder initial testing/setup</t>
+  </si>
+  <si>
+    <t>Lidar intial testing/setup</t>
   </si>
 </sst>
 </file>
@@ -128,6 +134,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC5B07-8330-4D93-AED1-4BF72A9CECD9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,6 +539,31 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44953</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Capstone-Docs/Documents/Capstone Timeline.xlsx
+++ b/Capstone-Docs/Documents/Capstone Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd0f1bc04ebb7ad/.Xil/Documents/GitHub/Capstone-2023/Capstone-Docs/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607A14D5-2F7D-4AC6-9C80-60FE86551826}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95226F90-F421-4C7B-8CE4-4362AB9A8FB4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{995634CD-4C22-4B74-952B-7B9C86B32EB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -74,13 +74,22 @@
     <t>Motor Testing</t>
   </si>
   <si>
-    <t>IMU initial testing/setup</t>
-  </si>
-  <si>
     <t>Encoder initial testing/setup</t>
   </si>
   <si>
-    <t>Lidar intial testing/setup</t>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>IMU initial testing/setup/data grab</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>Lidar setup/initial test on sample code</t>
+  </si>
+  <si>
+    <t>5,6,7</t>
   </si>
 </sst>
 </file>
@@ -440,13 +449,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" customWidth="1"/>
     <col min="4" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" customWidth="1"/>
   </cols>
@@ -499,7 +508,7 @@
         <v>44946</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -523,6 +532,9 @@
       <c r="D5" s="1">
         <v>44950</v>
       </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -537,16 +549,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>44953</v>
       </c>
       <c r="E7" s="1">
-        <v>44956</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -554,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -562,7 +574,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44959</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44959</v>
       </c>
     </row>
   </sheetData>

--- a/Capstone-Docs/Documents/Capstone Timeline.xlsx
+++ b/Capstone-Docs/Documents/Capstone Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd0f1bc04ebb7ad/.Xil/Documents/GitHub/Capstone-2023/Capstone-Docs/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95226F90-F421-4C7B-8CE4-4362AB9A8FB4}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF93E888-C7C4-4135-BE7B-A2187F3F6C03}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{995634CD-4C22-4B74-952B-7B9C86B32EB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>5,6,7</t>
+  </si>
+  <si>
+    <t>Servo initial testing</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC5B07-8330-4D93-AED1-4BF72A9CECD9}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,6 +571,15 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44960</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44960</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -584,6 +596,23 @@
       </c>
       <c r="E9" s="1">
         <v>44959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44960</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44960</v>
       </c>
     </row>
   </sheetData>

--- a/Capstone-Docs/Documents/Capstone Timeline.xlsx
+++ b/Capstone-Docs/Documents/Capstone Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd0f1bc04ebb7ad/.Xil/Documents/GitHub/Capstone-2023/Capstone-Docs/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF93E888-C7C4-4135-BE7B-A2187F3F6C03}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{2B009EA1-8078-4ADC-ADAB-7B1384083509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47D8980-9BA8-496B-9D93-8E7292EB2B12}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{995634CD-4C22-4B74-952B-7B9C86B32EB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -71,28 +71,64 @@
     <t>Formal Proposal</t>
   </si>
   <si>
-    <t>Motor Testing</t>
-  </si>
-  <si>
-    <t>Encoder initial testing/setup</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>IMU initial testing/setup/data grab</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>Lidar setup/initial test on sample code</t>
-  </si>
-  <si>
-    <t>5,6,7</t>
-  </si>
-  <si>
-    <t>Servo initial testing</t>
+    <t>Car electronics setup/sample code</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>29 days</t>
+  </si>
+  <si>
+    <t>25 days</t>
+  </si>
+  <si>
+    <t>PID controller</t>
+  </si>
+  <si>
+    <t>Complementary Filter</t>
+  </si>
+  <si>
+    <t>Kalman Filter</t>
+  </si>
+  <si>
+    <t>Controller coding</t>
+  </si>
+  <si>
+    <t>Angular Estimator coding</t>
+  </si>
+  <si>
+    <t>Linear Estimator coding</t>
+  </si>
+  <si>
+    <t>ROS coding/implementation</t>
+  </si>
+  <si>
+    <t>Testing/Pre-SLAM navigation</t>
+  </si>
+  <si>
+    <t>SLAM</t>
+  </si>
+  <si>
+    <t>21 days</t>
+  </si>
+  <si>
+    <t>11 days</t>
+  </si>
+  <si>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>40 days</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>9, 10, 11</t>
   </si>
 </sst>
 </file>
@@ -449,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC5B07-8330-4D93-AED1-4BF72A9CECD9}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,8 +543,14 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="1">
         <v>44946</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44974</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -521,8 +563,17 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="1">
         <v>44949</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44969</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -532,11 +583,14 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="1">
         <v>44950</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="E5" s="1">
+        <v>44974</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -546,22 +600,34 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44953</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44962</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>44953</v>
+        <v>44974</v>
       </c>
       <c r="E7" s="1">
-        <v>44959</v>
+        <v>44983</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -569,16 +635,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="1">
-        <v>44960</v>
+        <v>44974</v>
       </c>
       <c r="E8" s="1">
-        <v>44960</v>
+        <v>44983</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -586,16 +655,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>44959</v>
+        <v>44974</v>
       </c>
       <c r="E9" s="1">
-        <v>44959</v>
+        <v>44983</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -606,13 +678,113 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44984</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44994</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44984</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44994</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44984</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44994</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44994</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45005</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="D10" s="1">
-        <v>44960</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44960</v>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45012</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45005</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45044</v>
       </c>
     </row>
   </sheetData>
